--- a/productsbase1.xlsx
+++ b/productsbase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26040" yWindow="0" windowWidth="24000" windowHeight="11610"/>
+    <workbookView xWindow="26970" yWindow="0" windowWidth="24000" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="desc" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="guide" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">desc!$A$1:$L$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">desc!$A$1:$M$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">geography!$A$1:$B$1</definedName>
     <definedName name="category">Таблица1[name]</definedName>
   </definedNames>
@@ -51,6 +51,20 @@
           </rPr>
           <t xml:space="preserve">Точка с запятой в коне обозначают, что в поле может быть несколько ключей.
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ВАЖНО: через точку с запятой в том же порядке, что и цены в следующем столбце</t>
         </r>
       </text>
     </comment>
@@ -123,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="221">
   <si>
     <t>Пенза</t>
   </si>
@@ -518,24 +532,6 @@
     <t>ЕЮС</t>
   </si>
   <si>
-    <t>Советы и юридические консультации адвокатов в режиме онлайн на любые вопросы</t>
-  </si>
-  <si>
-    <t>Устная и письменная консультация из любой точки мира в любой момент, чтобы защитить свои права.</t>
-  </si>
-  <si>
-    <t>Консультация юриста по любым юридическим вопросам</t>
-  </si>
-  <si>
-    <t>Страхование новой шубы от утраты и повреждений</t>
-  </si>
-  <si>
-    <t>Страхование при возникновении заболеваний, инвалидности и травм</t>
-  </si>
-  <si>
-    <t>Деньги для восстановления бюджета, при возникающих рисках, в результате занятий спортом</t>
-  </si>
-  <si>
     <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668273075051187181</t>
   </si>
   <si>
@@ -686,9 +682,6 @@
     <t>эконом;стандарт;премиум</t>
   </si>
   <si>
-    <t>Страхование жизни и личного имущества  от последствий грабежа/разбоя.</t>
-  </si>
-  <si>
     <t>МСРЦ</t>
   </si>
   <si>
@@ -746,21 +739,12 @@
     <t>https://www.rgs.ru/</t>
   </si>
   <si>
-    <t>800;1000;1500;3500</t>
-  </si>
-  <si>
     <t>value4</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>250 000</t>
-  </si>
-  <si>
-    <t>эконом;стандарт;премиум;платинум</t>
-  </si>
-  <si>
     <t>Альфа;Ренессанс</t>
   </si>
   <si>
@@ -777,6 +761,45 @@
   </si>
   <si>
     <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668277567727404415</t>
+  </si>
+  <si>
+    <t>Защита от грабежа/разбоя: выплаты при утрате ценностей и нанесении вреда здоровью.</t>
+  </si>
+  <si>
+    <t>6 консультаций</t>
+  </si>
+  <si>
+    <t>10 консультаций</t>
+  </si>
+  <si>
+    <t>16 консультаций</t>
+  </si>
+  <si>
+    <t>Юридические консультации профессиональных адвокатов устно и письменно по любым вопросам круглосуточно.</t>
+  </si>
+  <si>
+    <t>4 консультаций</t>
+  </si>
+  <si>
+    <t>11 консультаций</t>
+  </si>
+  <si>
+    <t>Страхование новой шубы от утраты и повреждений.</t>
+  </si>
+  <si>
+    <t>49 999р.</t>
+  </si>
+  <si>
+    <t>149 999р.</t>
+  </si>
+  <si>
+    <t>200 000р.</t>
+  </si>
+  <si>
+    <t>Выплаты при возникновении заболеваний, инвалидности и травм</t>
+  </si>
+  <si>
+    <t>Выплаты при получении спортивных травм.</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1351,8 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,40 +1376,40 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>11</v>
@@ -1397,10 +1420,10 @@
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>119</v>
@@ -1415,31 +1438,31 @@
         <v>114</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,7 +1470,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>119</v>
@@ -1462,31 +1485,31 @@
         <v>115</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="14">
-        <v>6</v>
-      </c>
-      <c r="I3" s="14">
-        <v>10</v>
-      </c>
-      <c r="J3" s="14">
-        <v>16</v>
+        <v>212</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1494,10 +1517,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>109</v>
@@ -1509,31 +1532,31 @@
         <v>115</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="14">
-        <v>6</v>
-      </c>
-      <c r="I4" s="14">
-        <v>10</v>
-      </c>
-      <c r="J4" s="14">
-        <v>16</v>
+        <v>212</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>130</v>
@@ -1556,31 +1579,31 @@
         <v>115</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="H5" s="14">
-        <v>4</v>
-      </c>
-      <c r="I5" s="14">
-        <v>6</v>
-      </c>
-      <c r="J5" s="14">
-        <v>11</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1588,10 +1611,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
@@ -1603,31 +1626,31 @@
         <v>114</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="H6" s="15">
-        <v>49999</v>
-      </c>
-      <c r="I6" s="15">
-        <v>149999</v>
-      </c>
-      <c r="J6" s="15">
-        <v>200000</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1635,10 +1658,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>110</v>
@@ -1650,7 +1673,7 @@
         <v>114</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="H7" s="15">
         <v>130000</v>
@@ -1662,16 +1685,16 @@
         <v>244000</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O7" s="29"/>
     </row>
@@ -1680,10 +1703,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>110</v>
@@ -1695,7 +1718,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="H8" s="15">
         <v>30000</v>
@@ -1707,21 +1730,21 @@
         <v>80000</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O8" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L8"/>
+  <autoFilter ref="A1:M8"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
       <formula1>category</formula1>
@@ -1772,7 +1795,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1803,7 @@
         <v>115</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1811,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1861,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,7 +1869,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1877,7 @@
         <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1885,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1893,7 @@
         <v>113</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1899,10 +1922,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2187,7 +2210,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>25</v>
@@ -2195,7 +2218,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>33</v>
@@ -2203,7 +2226,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>39</v>
@@ -2211,7 +2234,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>43</v>
@@ -2219,7 +2242,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>46</v>
@@ -2227,7 +2250,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>50</v>
@@ -2235,7 +2258,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>64</v>
@@ -2243,7 +2266,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>67</v>
@@ -2251,7 +2274,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>76</v>
@@ -2259,7 +2282,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>83</v>
@@ -2267,7 +2290,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>87</v>
@@ -2275,7 +2298,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>97</v>
@@ -2283,7 +2306,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>103</v>
@@ -2291,7 +2314,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>24</v>
@@ -2299,7 +2322,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>105</v>
@@ -2499,7 +2522,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>26</v>
@@ -2507,7 +2530,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B77" s="25" t="s">
         <v>28</v>
@@ -2515,7 +2538,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B78" s="25" t="s">
         <v>42</v>
@@ -2523,7 +2546,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B79" s="25" t="s">
         <v>45</v>
@@ -2531,7 +2554,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>52</v>
@@ -2539,7 +2562,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>53</v>
@@ -2547,7 +2570,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>57</v>
@@ -2555,7 +2578,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B83" s="25" t="s">
         <v>61</v>
@@ -2563,7 +2586,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B84" s="25" t="s">
         <v>72</v>
@@ -2571,7 +2594,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B85" s="25" t="s">
         <v>74</v>
@@ -2579,7 +2602,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B86" s="25" t="s">
         <v>78</v>
@@ -2587,7 +2610,7 @@
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B87" s="25" t="s">
         <v>79</v>
@@ -2595,7 +2618,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B88" s="25" t="s">
         <v>100</v>
@@ -2603,7 +2626,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B89" s="25" t="s">
         <v>101</v>
@@ -2611,7 +2634,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B90" s="25" t="s">
         <v>104</v>
@@ -2647,22 +2670,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>13</v>
@@ -2676,19 +2699,19 @@
         <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2699,42 +2722,42 @@
         <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
         <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2742,22 +2765,22 @@
         <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
         <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2768,42 +2791,42 @@
         <v>10</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2845,24 +2868,24 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D2" s="19" t="str">
         <f>"2019/04/16 14:32"</f>

--- a/productsbase1.xlsx
+++ b/productsbase1.xlsx
@@ -1352,7 +1352,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/productsbase1.xlsx
+++ b/productsbase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26970" yWindow="0" windowWidth="24000" windowHeight="11610"/>
+    <workbookView xWindow="27900" yWindow="0" windowWidth="24000" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="desc" sheetId="1" r:id="rId1"/>
@@ -622,54 +622,6 @@
     <t>ПерсонаАльфа</t>
   </si>
   <si>
-    <t>img/icons/segment/property.png</t>
-  </si>
-  <si>
-    <t>img/icons/segment/law.png</t>
-  </si>
-  <si>
-    <t>img/icons/segment/health.png</t>
-  </si>
-  <si>
-    <t>img/icons/segment/home.png</t>
-  </si>
-  <si>
-    <t>img/icons/segment/road.png</t>
-  </si>
-  <si>
-    <t>img/icons/segment/job.png</t>
-  </si>
-  <si>
-    <t>img/icons/category/insurance.png</t>
-  </si>
-  <si>
-    <t>img/icons/category/consultation.png</t>
-  </si>
-  <si>
-    <t>img/icons/category/service.png</t>
-  </si>
-  <si>
-    <t>img/covers/SA/alpha_lawer.png</t>
-  </si>
-  <si>
-    <t>img/covers/SA/alpha_person.png</t>
-  </si>
-  <si>
-    <t>img/covers/SA/your_lawer.png</t>
-  </si>
-  <si>
-    <t>img/covers/SA/lawer_24.png</t>
-  </si>
-  <si>
-    <t>img/covers/SA/fur_under_protection.png</t>
-  </si>
-  <si>
-    <t>img/covers/SA/health_under_control.png</t>
-  </si>
-  <si>
-    <t>img/covers/SA/sportly_plus.png</t>
-  </si>
-  <si>
     <t>800;1000;1500</t>
   </si>
   <si>
@@ -800,6 +752,54 @@
   </si>
   <si>
     <t>Выплаты при получении спортивных травм.</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668271314936618505</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668271945557748133</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668272092328321937</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668272328020148257</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668272211726000511</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688629270149989171</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688629433229536246</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668193941144342270</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668194250211670349</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668493326253244373</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668194885295097327</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668195125768383639</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668194636045764696</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668195348640527877</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668194439455257724</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668195249908090674</t>
   </si>
 </sst>
 </file>
@@ -959,7 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,6 +1045,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1351,8 +1357,8 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,13 +1409,13 @@
         <v>144</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>11</v>
@@ -1423,7 +1429,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>119</v>
@@ -1438,28 +1444,28 @@
         <v>114</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>207</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>131</v>
@@ -1470,7 +1476,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>119</v>
@@ -1485,28 +1491,28 @@
         <v>115</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>170</v>
+        <v>161</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>205</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>132</v>
@@ -1517,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>109</v>
@@ -1532,28 +1538,28 @@
         <v>115</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>206</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>136</v>
@@ -1564,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>130</v>
@@ -1579,28 +1585,28 @@
         <v>115</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>208</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>133</v>
@@ -1611,10 +1617,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
@@ -1626,28 +1632,28 @@
         <v>114</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>174</v>
+        <v>161</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>209</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>134</v>
@@ -1658,10 +1664,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>110</v>
@@ -1673,7 +1679,7 @@
         <v>114</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="H7" s="15">
         <v>130000</v>
@@ -1685,16 +1691,16 @@
         <v>244000</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>175</v>
+        <v>161</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="O7" s="29"/>
     </row>
@@ -1703,10 +1709,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>110</v>
@@ -1718,7 +1724,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="H8" s="15">
         <v>30000</v>
@@ -1730,16 +1736,16 @@
         <v>80000</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>176</v>
+        <v>161</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="O8" s="29"/>
     </row>
@@ -1750,9 +1756,18 @@
       <formula1>category</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N4" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="N2" r:id="rId3"/>
+    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="N6" r:id="rId5"/>
+    <hyperlink ref="N7" r:id="rId6"/>
+    <hyperlink ref="N8" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1773,7 +1788,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1810,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1803,7 +1818,7 @@
         <v>115</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,17 +1826,19 @@
         <v>116</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://webtutor.otpbank.ru/download_file.html?file_id=6668193941144342270"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1831,7 +1848,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1870,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1878,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1886,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1894,7 @@
         <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1902,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,14 +1910,22 @@
         <v>113</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1909,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -2210,7 +2235,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>25</v>
@@ -2218,7 +2243,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>33</v>
@@ -2226,7 +2251,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>39</v>
@@ -2234,7 +2259,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>43</v>
@@ -2242,7 +2267,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>46</v>
@@ -2250,7 +2275,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>50</v>
@@ -2258,7 +2283,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>64</v>
@@ -2266,7 +2291,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>67</v>
@@ -2274,7 +2299,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>76</v>
@@ -2282,7 +2307,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>83</v>
@@ -2290,7 +2315,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>87</v>
@@ -2298,7 +2323,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>97</v>
@@ -2306,7 +2331,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>103</v>
@@ -2314,7 +2339,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>24</v>
@@ -2322,7 +2347,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>105</v>
@@ -2522,7 +2547,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>26</v>
@@ -2530,7 +2555,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B77" s="25" t="s">
         <v>28</v>
@@ -2538,7 +2563,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B78" s="25" t="s">
         <v>42</v>
@@ -2546,7 +2571,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B79" s="25" t="s">
         <v>45</v>
@@ -2554,7 +2579,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>52</v>
@@ -2562,7 +2587,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>53</v>
@@ -2570,7 +2595,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>57</v>
@@ -2578,7 +2603,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B83" s="25" t="s">
         <v>61</v>
@@ -2586,7 +2611,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B84" s="25" t="s">
         <v>72</v>
@@ -2594,7 +2619,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B85" s="25" t="s">
         <v>74</v>
@@ -2602,7 +2627,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B86" s="25" t="s">
         <v>78</v>
@@ -2610,7 +2635,7 @@
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B87" s="25" t="s">
         <v>79</v>
@@ -2618,7 +2643,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B88" s="25" t="s">
         <v>100</v>
@@ -2626,7 +2651,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B89" s="25" t="s">
         <v>101</v>
@@ -2634,7 +2659,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B90" s="25" t="s">
         <v>104</v>
@@ -2655,7 +2680,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,13 +2724,13 @@
         <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -2722,19 +2747,19 @@
         <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
         <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2745,19 +2770,19 @@
         <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2768,13 +2793,13 @@
         <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
         <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2791,13 +2816,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2814,19 +2839,19 @@
         <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/productsbase1.xlsx
+++ b/productsbase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="0" windowWidth="24000" windowHeight="11610"/>
+    <workbookView xWindow="31620" yWindow="0" windowWidth="24000" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="desc" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>ВАЖНО: через точку с запятой в том же порядке, что и цены в следующем столбце</t>
         </r>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="265">
   <si>
     <t>Пенза</t>
   </si>
@@ -655,24 +656,6 @@
     <t>Покрытие: 75 000р.</t>
   </si>
   <si>
-    <t>img\companies\alpha.png</t>
-  </si>
-  <si>
-    <t>img\companies\vsk.png</t>
-  </si>
-  <si>
-    <t>img\companies\grs.png</t>
-  </si>
-  <si>
-    <t>img\companies\eus.png</t>
-  </si>
-  <si>
-    <t>img\companies\zetta.png</t>
-  </si>
-  <si>
-    <t>img\companies\rgs.png</t>
-  </si>
-  <si>
     <t>https://zettains.ru/</t>
   </si>
   <si>
@@ -718,24 +701,6 @@
     <t>Защита от грабежа/разбоя: выплаты при утрате ценностей и нанесении вреда здоровью.</t>
   </si>
   <si>
-    <t>6 консультаций</t>
-  </si>
-  <si>
-    <t>10 консультаций</t>
-  </si>
-  <si>
-    <t>16 консультаций</t>
-  </si>
-  <si>
-    <t>Юридические консультации профессиональных адвокатов устно и письменно по любым вопросам круглосуточно.</t>
-  </si>
-  <si>
-    <t>4 консультаций</t>
-  </si>
-  <si>
-    <t>11 консультаций</t>
-  </si>
-  <si>
     <t>Страхование новой шубы от утраты и повреждений.</t>
   </si>
   <si>
@@ -800,6 +765,174 @@
   </si>
   <si>
     <t>https://webtutor.otpbank.ru/download_file.html?file_id=6668195249908090674</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688632771377717511</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688633169624254297</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688633274026774229</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688633346811199468</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688633502121525319</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688633728272727639</t>
+  </si>
+  <si>
+    <t>3 звонка,2 подбора компании для экспертизы/представительства в суде</t>
+  </si>
+  <si>
+    <t>5 звонков, 4 подбора компании для экспертизы/представительства в суде</t>
+  </si>
+  <si>
+    <t>7 звонков, 6 подборов,  +1 звонок юриста от имени клиента, +включая родственников</t>
+  </si>
+  <si>
+    <t>3 звонка, 1 консультация через ЛК</t>
+  </si>
+  <si>
+    <t>3 звонка,1 консультация через ЛК</t>
+  </si>
+  <si>
+    <t>5 звонков,1 консультация через ЛК, 1 помощь в заполнении декларации</t>
+  </si>
+  <si>
+    <t>130 000р.</t>
+  </si>
+  <si>
+    <t>159 000р.</t>
+  </si>
+  <si>
+    <t>244 000р.</t>
+  </si>
+  <si>
+    <t>30 000р.</t>
+  </si>
+  <si>
+    <t>47 000р.</t>
+  </si>
+  <si>
+    <t>80 000р.</t>
+  </si>
+  <si>
+    <t>Двойная защита</t>
+  </si>
+  <si>
+    <t>Альфа;ВСК;Ренессанс</t>
+  </si>
+  <si>
+    <t>Комплексное страхование от несчастных случаев: переломы, ожоги, инвалидность, укус клеща, уход из жизни.</t>
+  </si>
+  <si>
+    <t>70 000р.</t>
+  </si>
+  <si>
+    <t>120 000р.</t>
+  </si>
+  <si>
+    <t>50 000р.</t>
+  </si>
+  <si>
+    <t>Детство под защитой</t>
+  </si>
+  <si>
+    <t>ВСК;Ренессанс;Росгосстрах</t>
+  </si>
+  <si>
+    <t>Страхование детей от 1 до 17 лет. Выплаты при переломах и др. травмах, госпитализации, укусе животных или змей.</t>
+  </si>
+  <si>
+    <t>40 000р.</t>
+  </si>
+  <si>
+    <t>60 000р.</t>
+  </si>
+  <si>
+    <t>90 000р.</t>
+  </si>
+  <si>
+    <t>Школьный</t>
+  </si>
+  <si>
+    <t>Деньги для восстановления семейного бюджета в непредвиденных ситуациях  со здоровьем ребёнка.</t>
+  </si>
+  <si>
+    <t>45 000р.</t>
+  </si>
+  <si>
+    <t>102 000р.</t>
+  </si>
+  <si>
+    <t>Работа под защитой</t>
+  </si>
+  <si>
+    <t>Финансовая поддержка, а также HR-услуги, юридические и психологические консультации.</t>
+  </si>
+  <si>
+    <t>10 000р.</t>
+  </si>
+  <si>
+    <t>14 000р.</t>
+  </si>
+  <si>
+    <t>20 000р.</t>
+  </si>
+  <si>
+    <t>Дом под защитой</t>
+  </si>
+  <si>
+    <t>150 000р.</t>
+  </si>
+  <si>
+    <t>240 000р.</t>
+  </si>
+  <si>
+    <t>320 000р.</t>
+  </si>
+  <si>
+    <t>На сдачу</t>
+  </si>
+  <si>
+    <t>% от цены товара</t>
+  </si>
+  <si>
+    <t>промо;эконом</t>
+  </si>
+  <si>
+    <t>500;800</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688654447333879233</t>
+  </si>
+  <si>
+    <t>Выплаты при повреждении жилого имущества из-за стихии или третьих лиц, выплаты за клиента, если тот повредил квартиру соседей.</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688654833391847964</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688654932240835329</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688655036058911444</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688655126454277320</t>
+  </si>
+  <si>
+    <t>https://webtutor.otpbank.ru/download_file.html?file_id=6688655332231941788</t>
+  </si>
+  <si>
+    <t>Консультации адвокатов устно и письменно круглосуточно. Предоставление типовых образцов документов. Налоговый вычет онлайн.</t>
+  </si>
+  <si>
+    <t>Консультации юристов устно и письменно. Типовые образцы документов. Переговоры за клиента.</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1049,6 +1182,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1354,11 +1496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N15" sqref="N15"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1551,7 @@
         <v>144</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>163</v>
@@ -1444,7 +1586,7 @@
         <v>114</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>169</v>
@@ -1456,7 +1598,7 @@
         <v>171</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>164</v>
@@ -1465,7 +1607,7 @@
         <v>161</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>131</v>
@@ -1491,19 +1633,19 @@
         <v>115</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>195</v>
+        <v>264</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>164</v>
@@ -1512,7 +1654,7 @@
         <v>161</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>132</v>
@@ -1526,7 +1668,7 @@
         <v>168</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>109</v>
@@ -1538,19 +1680,19 @@
         <v>115</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>195</v>
+        <v>264</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>164</v>
@@ -1559,7 +1701,7 @@
         <v>161</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>136</v>
@@ -1585,19 +1727,19 @@
         <v>115</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>198</v>
+        <v>263</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>164</v>
@@ -1606,7 +1748,7 @@
         <v>161</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>133</v>
@@ -1620,7 +1762,7 @@
         <v>168</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
@@ -1632,19 +1774,19 @@
         <v>114</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>164</v>
@@ -1653,7 +1795,7 @@
         <v>161</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>134</v>
@@ -1667,7 +1809,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>110</v>
@@ -1679,19 +1821,19 @@
         <v>114</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="15">
-        <v>130000</v>
-      </c>
-      <c r="I7" s="15">
-        <v>159000</v>
-      </c>
-      <c r="J7" s="15">
-        <v>244000</v>
+        <v>191</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>164</v>
@@ -1700,7 +1842,7 @@
         <v>161</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O7" s="29"/>
     </row>
@@ -1712,7 +1854,7 @@
         <v>168</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>110</v>
@@ -1724,19 +1866,19 @@
         <v>114</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="15">
-        <v>30000</v>
-      </c>
-      <c r="I8" s="15">
-        <v>47000</v>
-      </c>
-      <c r="J8" s="15">
-        <v>80000</v>
+        <v>192</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>164</v>
@@ -1745,17 +1887,276 @@
         <v>161</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>262</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M8"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
-      <formula1>category</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="N4" r:id="rId1"/>
     <hyperlink ref="N3" r:id="rId2"/>
@@ -1764,22 +2165,16 @@
     <hyperlink ref="N6" r:id="rId5"/>
     <hyperlink ref="N7" r:id="rId6"/>
     <hyperlink ref="N8" r:id="rId7"/>
+    <hyperlink ref="N9" r:id="rId8"/>
+    <hyperlink ref="N10" r:id="rId9"/>
+    <hyperlink ref="N11" r:id="rId10"/>
+    <hyperlink ref="N12" r:id="rId11"/>
+    <hyperlink ref="N13" r:id="rId12"/>
+    <hyperlink ref="N14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>category!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1810,7 +2205,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +2213,7 @@
         <v>115</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +2221,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +2265,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +2273,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +2281,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +2289,7 @@
         <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +2297,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +2305,7 @@
         <v>113</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +3075,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,13 +3119,13 @@
         <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="E2" t="s">
-        <v>172</v>
+      <c r="E2" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -2747,19 +3142,19 @@
         <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>129</v>
       </c>
-      <c r="E3" t="s">
-        <v>173</v>
+      <c r="E3" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2770,19 +3165,19 @@
         <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
       </c>
-      <c r="E4" t="s">
-        <v>174</v>
+      <c r="E4" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2793,13 +3188,13 @@
         <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>125</v>
       </c>
-      <c r="E5" t="s">
-        <v>175</v>
+      <c r="E5" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2816,13 +3211,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>176</v>
+      <c r="E6" s="34" t="s">
+        <v>214</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2839,19 +3234,19 @@
         <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E7" t="s">
-        <v>177</v>
+      <c r="E7" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2867,6 +3262,12 @@
     <hyperlink ref="G3" r:id="rId9"/>
     <hyperlink ref="G7" r:id="rId10"/>
     <hyperlink ref="G5" r:id="rId11"/>
+    <hyperlink ref="E2" r:id="rId12"/>
+    <hyperlink ref="E5" r:id="rId13"/>
+    <hyperlink ref="E3" r:id="rId14"/>
+    <hyperlink ref="E7" r:id="rId15"/>
+    <hyperlink ref="E4" r:id="rId16"/>
+    <hyperlink ref="E6" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/productsbase1.xlsx
+++ b/productsbase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26970" yWindow="0" windowWidth="24000" windowHeight="11610"/>
+    <workbookView xWindow="27900" yWindow="0" windowWidth="24000" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="desc" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="222">
   <si>
     <t>Пенза</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>Выплаты при получении спортивных травм.</t>
+  </si>
+  <si>
+    <t>BOX</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1355,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1482,7 @@
         <v>109</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>115</v>
@@ -1712,7 +1715,7 @@
         <v>110</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>114</v>

--- a/productsbase1.xlsx
+++ b/productsbase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="0" windowWidth="24000" windowHeight="11610"/>
+    <workbookView xWindow="28830" yWindow="0" windowWidth="24000" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="desc" sheetId="1" r:id="rId1"/>
@@ -586,9 +586,6 @@
     <t>segment:name</t>
   </si>
   <si>
-    <t>category:name</t>
-  </si>
-  <si>
     <t>list</t>
   </si>
   <si>
@@ -803,6 +800,9 @@
   </si>
   <si>
     <t>BOX</t>
+  </si>
+  <si>
+    <t>category:name;</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1355,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,10 +1379,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>153</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>154</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>148</v>
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>17</v>
@@ -1406,13 +1406,13 @@
         <v>144</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>11</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>119</v>
@@ -1441,28 +1441,28 @@
         <v>114</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>131</v>
@@ -1473,7 +1473,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>119</v>
@@ -1482,34 +1482,34 @@
         <v>109</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>211</v>
-      </c>
       <c r="K3" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>132</v>
@@ -1520,10 +1520,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>109</v>
@@ -1535,28 +1535,28 @@
         <v>115</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>211</v>
-      </c>
       <c r="K4" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>136</v>
@@ -1567,7 +1567,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>130</v>
@@ -1582,28 +1582,28 @@
         <v>115</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>214</v>
-      </c>
       <c r="K5" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>133</v>
@@ -1614,10 +1614,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>15</v>
@@ -1629,28 +1629,28 @@
         <v>114</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>218</v>
-      </c>
       <c r="K6" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>134</v>
@@ -1661,10 +1661,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>110</v>
@@ -1676,7 +1676,7 @@
         <v>114</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="15">
         <v>130000</v>
@@ -1688,16 +1688,16 @@
         <v>244000</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O7" s="29"/>
     </row>
@@ -1706,22 +1706,22 @@
         <v>23</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8" s="15">
         <v>30000</v>
@@ -1733,16 +1733,16 @@
         <v>80000</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O8" s="29"/>
     </row>
@@ -1798,7 +1798,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>115</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1856,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
         <v>113</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>138</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>25</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>33</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>39</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>43</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>46</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>50</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>64</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>67</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>76</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>83</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>87</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>97</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>103</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>24</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>105</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76" s="25" t="s">
         <v>26</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="25" t="s">
         <v>28</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B78" s="25" t="s">
         <v>42</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B79" s="25" t="s">
         <v>45</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>52</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B81" s="25" t="s">
         <v>53</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B82" s="25" t="s">
         <v>57</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B83" s="25" t="s">
         <v>61</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B84" s="25" t="s">
         <v>72</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B85" s="25" t="s">
         <v>74</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" s="25" t="s">
         <v>78</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87" s="25" t="s">
         <v>79</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B88" s="25" t="s">
         <v>100</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B89" s="25" t="s">
         <v>101</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B90" s="25" t="s">
         <v>104</v>
@@ -2673,10 +2673,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>147</v>
@@ -2688,7 +2688,7 @@
         <v>146</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>13</v>
@@ -2702,13 +2702,13 @@
         <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -2725,42 +2725,42 @@
         <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
         <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2768,16 +2768,16 @@
         <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
         <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2811,25 +2811,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
